--- a/12 Excel Advanced Functions/SCAN & OFFSET Function/Excel SCAN Function.xlsx
+++ b/12 Excel Advanced Functions/SCAN & OFFSET Function/Excel SCAN Function.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b7f320934ce7607/06 Data Science ^0 Analytics/Github/Microsoft-Excel-For-Analytics/12 Excel Advanced Functions/SCAN Function/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b7f320934ce7607/06 Data Science ^0 Analytics/Github/Microsoft-Excel-For-Analytics/12 Excel Advanced Functions/SCAN ^0 OFFSET Function/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_AD4DB114E441178AC67DF45BDE10D956693EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5DA58ED-4D59-4108-A26E-BD11AA3CAC62}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_AD4DB114E441178AC67DF45BDE10D956693EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{879F3078-1C57-4F6E-8892-47378D8ECE3B}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="20098" windowHeight="11914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,9 +98,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,12 +115,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,19 +149,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -178,6 +230,82 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>111326</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>20242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15181</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>126509</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C85F3DB-DB7A-37EB-B94C-A9C334985FF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3805361" y="566757"/>
+          <a:ext cx="1887500" cy="470610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1"/>
+            <a:t>Conditional Formatting For Formatting Jan Month Row</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,7 +589,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,7 +627,7 @@
         <v>8603</v>
       </c>
       <c r="D2" s="6" cm="1">
-        <f t="array" aca="1" ref="D2:D33" ca="1">_xlfn.SCAN(0,B2:B33,_xlfn.LAMBDA(_xlpm.a,_xlpm.b,IF(MONTH(OFFSET(B2,,-1))&lt;&gt;1,_xlpm.a+_xlpm.b,0*_xlpm.a+_xlpm.b)))</f>
+        <f t="array" aca="1" ref="D2:D33" ca="1">_xlfn.SCAN(0,B2:B33,_xlfn.LAMBDA(_xlpm.a,_xlpm.b,IF(MONTH(OFFSET(_xlpm.b,,-1))&lt;&gt;1,SUM(_xlpm.a+_xlpm.b),(0*_xlpm.a)+_xlpm.b)))</f>
         <v>8603</v>
       </c>
     </row>
@@ -515,7 +643,7 @@
       </c>
       <c r="D3" s="6">
         <f ca="1"/>
-        <v>9687</v>
+        <v>18290</v>
       </c>
       <c r="F3" s="8"/>
     </row>
@@ -531,7 +659,7 @@
       </c>
       <c r="D4" s="6">
         <f ca="1"/>
-        <v>7811</v>
+        <v>26101</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -546,7 +674,7 @@
       </c>
       <c r="D5" s="6">
         <f ca="1"/>
-        <v>8613</v>
+        <v>34714</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -561,7 +689,7 @@
       </c>
       <c r="D6" s="6">
         <f ca="1"/>
-        <v>7551</v>
+        <v>42265</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -576,7 +704,7 @@
       </c>
       <c r="D7" s="6">
         <f ca="1"/>
-        <v>8664</v>
+        <v>50929</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -591,7 +719,7 @@
       </c>
       <c r="D8" s="6">
         <f ca="1"/>
-        <v>4270</v>
+        <v>55199</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -606,7 +734,7 @@
       </c>
       <c r="D9" s="6">
         <f ca="1"/>
-        <v>2731</v>
+        <v>57930</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -621,7 +749,7 @@
       </c>
       <c r="D10" s="6">
         <f ca="1"/>
-        <v>5785</v>
+        <v>63715</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -636,7 +764,7 @@
       </c>
       <c r="D11" s="6">
         <f ca="1"/>
-        <v>1500</v>
+        <v>65215</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -651,7 +779,7 @@
       </c>
       <c r="D12" s="6">
         <f ca="1"/>
-        <v>4508</v>
+        <v>69723</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -666,7 +794,7 @@
       </c>
       <c r="D13" s="6">
         <f ca="1"/>
-        <v>8478</v>
+        <v>78201</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -696,7 +824,7 @@
       </c>
       <c r="D15" s="6">
         <f ca="1"/>
-        <v>8288</v>
+        <v>17046</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -711,7 +839,7 @@
       </c>
       <c r="D16" s="6">
         <f ca="1"/>
-        <v>3876</v>
+        <v>20922</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -726,7 +854,7 @@
       </c>
       <c r="D17" s="6">
         <f ca="1"/>
-        <v>3773</v>
+        <v>24695</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -741,7 +869,7 @@
       </c>
       <c r="D18" s="6">
         <f ca="1"/>
-        <v>2370</v>
+        <v>27065</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -756,7 +884,7 @@
       </c>
       <c r="D19" s="6">
         <f ca="1"/>
-        <v>3986</v>
+        <v>31051</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -771,7 +899,7 @@
       </c>
       <c r="D20" s="6">
         <f ca="1"/>
-        <v>9962</v>
+        <v>41013</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -786,7 +914,7 @@
       </c>
       <c r="D21" s="6">
         <f ca="1"/>
-        <v>3142</v>
+        <v>44155</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -801,7 +929,7 @@
       </c>
       <c r="D22" s="6">
         <f ca="1"/>
-        <v>4234</v>
+        <v>48389</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -816,7 +944,7 @@
       </c>
       <c r="D23" s="6">
         <f ca="1"/>
-        <v>9175</v>
+        <v>57564</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -831,7 +959,7 @@
       </c>
       <c r="D24" s="6">
         <f ca="1"/>
-        <v>6553</v>
+        <v>64117</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -846,7 +974,7 @@
       </c>
       <c r="D25" s="6">
         <f ca="1"/>
-        <v>8451</v>
+        <v>72568</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -876,7 +1004,7 @@
       </c>
       <c r="D27" s="6">
         <f ca="1"/>
-        <v>6156</v>
+        <v>8739</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -891,7 +1019,7 @@
       </c>
       <c r="D28" s="6">
         <f ca="1"/>
-        <v>4753</v>
+        <v>13492</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -906,7 +1034,7 @@
       </c>
       <c r="D29" s="6">
         <f ca="1"/>
-        <v>5927</v>
+        <v>19419</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -921,7 +1049,7 @@
       </c>
       <c r="D30" s="6">
         <f ca="1"/>
-        <v>7125</v>
+        <v>26544</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -936,7 +1064,7 @@
       </c>
       <c r="D31" s="6">
         <f ca="1"/>
-        <v>5186</v>
+        <v>31730</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -951,7 +1079,7 @@
       </c>
       <c r="D32" s="6">
         <f ca="1"/>
-        <v>9741</v>
+        <v>41471</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -966,12 +1094,18 @@
       </c>
       <c r="D33" s="6">
         <f ca="1"/>
-        <v>6081</v>
+        <v>47552</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="A1:D33">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>LEFT(TEXT($A1,"MMM"),3)="Jan"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>